--- a/2018年02月第1周技术中心周简报-芶凌.xlsx
+++ b/2018年02月第1周技术中心周简报-芶凌.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>本周重点工作完成情况</t>
   </si>
@@ -55,16 +55,19 @@
     <t>芶凌</t>
   </si>
   <si>
+    <t>宜享bug修复</t>
+  </si>
+  <si>
     <t>债权匹配扩展测试配合</t>
   </si>
   <si>
-    <t>债权匹配扩展增加查询功能</t>
-  </si>
-  <si>
-    <t>债权匹配扩展增加统计功能</t>
-  </si>
-  <si>
     <t>债权匹配折分配合</t>
+  </si>
+  <si>
+    <t>solr条件标准T-SQL查询解析</t>
+  </si>
+  <si>
+    <t>zookeeper学习</t>
   </si>
   <si>
     <t>系统优化</t>
@@ -85,10 +88,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -155,34 +158,143 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -192,115 +304,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -329,175 +332,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,15 +697,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -735,11 +729,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,171 +770,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1020,9 +1023,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1201,10 +1201,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="5C616C"/>
+        <a:sysClr val="windowText" lastClr="D3DAE3"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="404552"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1549,64 +1549,64 @@
         <v>11</v>
       </c>
       <c r="H2" s="28"/>
-      <c r="I2" s="49">
+      <c r="I2" s="48">
         <v>43142</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="51"/>
+      <c r="K2" s="50"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A3" s="7"/>
       <c r="C3" s="8"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="27" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="28"/>
-      <c r="I3" s="49">
+      <c r="I3" s="48">
         <v>43142</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A4" s="7"/>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="29" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="49">
+      <c r="I4" s="48">
         <v>43142</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A5" s="7"/>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="28"/>
-      <c r="I5" s="49">
+      <c r="I5" s="48">
         <v>43142</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="52"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A6" s="7"/>
@@ -1619,22 +1619,28 @@
         <v>11</v>
       </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="49">
+      <c r="I6" s="48">
         <v>43142</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="52"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A7" s="7"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="52"/>
+      <c r="I7" s="48">
+        <v>43142</v>
+      </c>
+      <c r="J7" s="49"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A8" s="7"/>
@@ -1643,9 +1649,9 @@
       <c r="E8" s="27"/>
       <c r="F8" s="28"/>
       <c r="H8" s="28"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="52"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A9" s="7"/>
@@ -1654,52 +1660,52 @@
       <c r="E9" s="27"/>
       <c r="F9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="52"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A10" s="7"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="31"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="28"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="52"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="12"/>
       <c r="C11" s="8"/>
       <c r="D11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
     </row>
     <row r="12" ht="24.95" customHeight="1" spans="1:11">
       <c r="A12" s="7"/>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="36"/>
+      <c r="E12" s="35"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" ht="42.75" customHeight="1" spans="1:11">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>1</v>
@@ -1711,51 +1717,51 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="58"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="59"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" ht="24.95" customHeight="1" spans="1:11">
       <c r="A14" s="7"/>
       <c r="C14" s="10"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="K14" s="60"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="K14" s="59"/>
     </row>
     <row r="15" ht="24.95" customHeight="1" spans="1:11">
       <c r="A15" s="7"/>
       <c r="C15" s="10"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:11">
       <c r="A16" s="19"/>
       <c r="C16" s="15"/>
       <c r="D16" s="20"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="62"/>
     </row>
     <row r="17" ht="42.75" customHeight="1" spans="1:11">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>1</v>
@@ -1767,63 +1773,63 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="58"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="59"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" ht="24.95" customHeight="1" spans="1:12">
       <c r="A18" s="7"/>
       <c r="C18" s="10"/>
       <c r="D18" s="21"/>
-      <c r="E18" s="44"/>
-      <c r="H18" s="45"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="65"/>
+      <c r="E18" s="43"/>
+      <c r="H18" s="44"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
     </row>
     <row r="19" ht="24.95" customHeight="1" spans="1:12">
       <c r="A19" s="7"/>
       <c r="C19" s="10"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="65"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" ht="24.95" customHeight="1" spans="1:12">
       <c r="A20" s="7"/>
       <c r="C20" s="10"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="65"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="64"/>
     </row>
     <row r="21" ht="42.75" customHeight="1" spans="1:11">
       <c r="A21" s="22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="24"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="67"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="11">
